--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Register_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Register_v1.0_EN.xlsx
@@ -275,10 +275,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$68</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$31</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$52</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$67</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$30</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$51</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$76</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -313,7 +313,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$25</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="177">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1019,31 +1019,12 @@
     <t>1.2.1.6</t>
   </si>
   <si>
-    <t>Can type max 32 characters, not less than 6 characters, characters must be hide</t>
-  </si>
-  <si>
-    <t>Can type max 32 characters, not less than 6 characters</t>
-  </si>
-  <si>
     <t>UJD_VN_TestViewpoint_Register_v1.0_EN</t>
   </si>
   <si>
     <t>Register screen</t>
   </si>
   <si>
-    <t xml:space="preserve">- Items:
-+ "Tên đăng nhập" textbox
-+ "Mật khẩu" textbox
-+ "Nhập lại mật khẩu" textbox
-+ "Họ và tên" textbox
-+ "Email" textbox
-+ "Mã xác nhận" textbox
-+ "Đăng ký" button
-+ Register by Facebook
-+ Register by Google
-</t>
-  </si>
-  <si>
     <t>Repassword</t>
   </si>
   <si>
@@ -1062,9 +1043,6 @@
     <t>1.2.1.8</t>
   </si>
   <si>
-    <t>1.2.1.9</t>
-  </si>
-  <si>
     <t>Register by Facebook</t>
   </si>
   <si>
@@ -1089,19 +1067,10 @@
     <t>Input capcha in "Mã xác nhận" textbox</t>
   </si>
   <si>
-    <t>Click on "Đăng ký" button</t>
-  </si>
-  <si>
     <t>Click on Register by Facebook link</t>
   </si>
   <si>
     <t>Click on Register by Google link</t>
-  </si>
-  <si>
-    <t>Can type max 50 characters</t>
-  </si>
-  <si>
-    <t>User input the verification code</t>
   </si>
   <si>
     <t>Display message confirm successful</t>
@@ -1121,9 +1090,6 @@
   </si>
   <si>
     <t>Input information</t>
-  </si>
-  <si>
-    <t>Can type max 100 characters</t>
   </si>
   <si>
     <t>Register Screen</t>
@@ -1132,6 +1098,28 @@
     <t>- Web title: Đăng ký
 - Display normally, there is not push, breaking font
 - Display text, textbox, button, color, background and arrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Display full item
+- Title is centered
+- All items (text and textbox, button) is left-aligned
+- Text's color is black and  required fields marked in red, title's color is blue
+</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 32 characters</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 32 characters, characters must be hide</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 50 characters</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed</t>
   </si>
 </sst>
 </file>
@@ -3131,6 +3119,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3151,24 +3157,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6326,14 +6314,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6348,12 +6336,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6365,12 +6353,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6379,15 +6367,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6396,11 +6384,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6423,10 +6411,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6444,10 +6432,10 @@
       <c r="B10" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6461,8 +6449,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6470,8 +6458,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6479,8 +6467,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6488,8 +6476,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6497,8 +6485,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6506,8 +6494,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6515,6 +6503,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6522,12 +6516,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6541,10 +6529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6665,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6737,10 +6725,10 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="162">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="98.25" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -6765,7 +6753,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
@@ -6795,7 +6783,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6826,13 +6814,13 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="46.5" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
@@ -6854,13 +6842,13 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="44" customFormat="1" ht="28.5" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
@@ -6870,7 +6858,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6882,13 +6870,13 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="44" customFormat="1" ht="23.25" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="44" customFormat="1" ht="34.5" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
@@ -6898,7 +6886,7 @@
       <c r="E16" s="64"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6910,13 +6898,13 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1" ht="22.5" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
@@ -6926,7 +6914,7 @@
       <c r="E17" s="64"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6938,10 +6926,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6954,7 +6942,7 @@
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6966,23 +6954,23 @@
         <v>37</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="64"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6994,23 +6982,23 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L19" s="56" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D20" s="60"/>
       <c r="E20" s="64"/>
       <c r="F20" s="63"/>
       <c r="G20" s="63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -7022,105 +7010,91 @@
         <v>37</v>
       </c>
       <c r="K20" s="59" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="27">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="D21" s="60"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+      <c r="E21" s="61"/>
+      <c r="F21" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="51" t="s">
+      <c r="C22" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="55"/>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
+      <c r="H22" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1" ht="33" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>37</v>
-      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
       <c r="K23" s="59" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="44" customFormat="1" ht="33" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="56" t="s">
-        <v>174</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="44" customFormat="1">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1">
       <c r="A25" s="65"/>
@@ -7134,9 +7108,9 @@
       <c r="I25" s="68"/>
       <c r="J25" s="69"/>
       <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1">
+      <c r="L25" s="73"/>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A26" s="65"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -7150,7 +7124,7 @@
       <c r="K26" s="67"/>
       <c r="L26" s="73"/>
     </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+    <row r="27" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A27" s="65"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
@@ -7162,9 +7136,9 @@
       <c r="I27" s="68"/>
       <c r="J27" s="69"/>
       <c r="K27" s="67"/>
-      <c r="L27" s="73"/>
-    </row>
-    <row r="28" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="L27" s="67"/>
+    </row>
+    <row r="28" spans="1:12" s="44" customFormat="1">
       <c r="A28" s="65"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
@@ -7176,7 +7150,7 @@
       <c r="I28" s="68"/>
       <c r="J28" s="69"/>
       <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
+      <c r="L28" s="73"/>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1">
       <c r="A29" s="65"/>
@@ -7193,32 +7167,32 @@
       <c r="L29" s="73"/>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="73"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1">
       <c r="A32" s="65"/>
@@ -7232,11 +7206,11 @@
       <c r="I32" s="68"/>
       <c r="J32" s="69"/>
       <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-    </row>
-    <row r="33" spans="1:12" s="44" customFormat="1">
+      <c r="L32" s="73"/>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="66"/>
       <c r="D33" s="66"/>
       <c r="E33" s="67"/>
@@ -7248,14 +7222,14 @@
       <c r="K33" s="67"/>
       <c r="L33" s="73"/>
     </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="34" spans="1:12" s="44" customFormat="1">
       <c r="A34" s="65"/>
       <c r="B34" s="74"/>
       <c r="C34" s="66"/>
       <c r="D34" s="66"/>
       <c r="E34" s="67"/>
       <c r="F34" s="67"/>
-      <c r="G34" s="72"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="66"/>
       <c r="I34" s="68"/>
       <c r="J34" s="69"/>
@@ -7264,17 +7238,17 @@
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1">
       <c r="A35" s="65"/>
-      <c r="B35" s="74"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="66"/>
       <c r="D35" s="66"/>
       <c r="E35" s="67"/>
       <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="66"/>
       <c r="I35" s="68"/>
       <c r="J35" s="69"/>
       <c r="K35" s="67"/>
-      <c r="L35" s="73"/>
+      <c r="L35" s="67"/>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1">
       <c r="A36" s="65"/>
@@ -7288,7 +7262,7 @@
       <c r="I36" s="68"/>
       <c r="J36" s="69"/>
       <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
+      <c r="L36" s="75"/>
     </row>
     <row r="37" spans="1:12" s="44" customFormat="1">
       <c r="A37" s="65"/>
@@ -7297,12 +7271,12 @@
       <c r="D37" s="66"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
-      <c r="G37" s="72"/>
+      <c r="G37" s="76"/>
       <c r="H37" s="66"/>
       <c r="I37" s="68"/>
       <c r="J37" s="69"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="75"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
     </row>
     <row r="38" spans="1:12" s="44" customFormat="1">
       <c r="A38" s="65"/>
@@ -7311,7 +7285,7 @@
       <c r="D38" s="66"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
-      <c r="G38" s="76"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="66"/>
       <c r="I38" s="68"/>
       <c r="J38" s="69"/>
@@ -7332,7 +7306,7 @@
       <c r="K39" s="73"/>
       <c r="L39" s="73"/>
     </row>
-    <row r="40" spans="1:12" s="44" customFormat="1">
+    <row r="40" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="65"/>
       <c r="B40" s="66"/>
       <c r="C40" s="66"/>
@@ -7346,7 +7320,7 @@
       <c r="K40" s="73"/>
       <c r="L40" s="73"/>
     </row>
-    <row r="41" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="41" spans="1:12" s="44" customFormat="1">
       <c r="A41" s="65"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
@@ -7487,32 +7461,32 @@
       <c r="L50" s="73"/>
     </row>
     <row r="51" spans="1:12" s="44" customFormat="1">
-      <c r="A51" s="65"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
     </row>
     <row r="53" spans="1:12" s="44" customFormat="1">
       <c r="A53" s="65"/>
@@ -7526,11 +7500,11 @@
       <c r="I53" s="68"/>
       <c r="J53" s="69"/>
       <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
+      <c r="L53" s="73"/>
     </row>
     <row r="54" spans="1:12" s="44" customFormat="1">
       <c r="A54" s="65"/>
-      <c r="B54" s="66"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="66"/>
       <c r="D54" s="66"/>
       <c r="E54" s="67"/>
@@ -7549,7 +7523,7 @@
       <c r="D55" s="66"/>
       <c r="E55" s="67"/>
       <c r="F55" s="67"/>
-      <c r="G55" s="72"/>
+      <c r="G55" s="67"/>
       <c r="H55" s="66"/>
       <c r="I55" s="68"/>
       <c r="J55" s="69"/>
@@ -7656,8 +7630,8 @@
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="66"/>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
@@ -7666,14 +7640,14 @@
       <c r="I63" s="68"/>
       <c r="J63" s="69"/>
       <c r="K63" s="67"/>
-      <c r="L63" s="73"/>
+      <c r="L63" s="67"/>
     </row>
     <row r="64" spans="1:12" s="44" customFormat="1">
       <c r="A64" s="65"/>
-      <c r="B64" s="66"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="74"/>
       <c r="D64" s="66"/>
-      <c r="E64" s="67"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="67"/>
       <c r="G64" s="67"/>
       <c r="H64" s="66"/>
@@ -7699,15 +7673,15 @@
     <row r="66" spans="1:13" s="44" customFormat="1">
       <c r="A66" s="65"/>
       <c r="B66" s="74"/>
-      <c r="C66" s="74"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="66"/>
       <c r="E66" s="72"/>
       <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
+      <c r="G66" s="72"/>
       <c r="H66" s="66"/>
       <c r="I66" s="68"/>
       <c r="J66" s="69"/>
-      <c r="K66" s="67"/>
+      <c r="K66" s="73"/>
       <c r="L66" s="67"/>
     </row>
     <row r="67" spans="1:13" s="44" customFormat="1">
@@ -7721,16 +7695,16 @@
       <c r="H67" s="66"/>
       <c r="I67" s="68"/>
       <c r="J67" s="69"/>
-      <c r="K67" s="73"/>
+      <c r="K67" s="67"/>
       <c r="L67" s="67"/>
     </row>
     <row r="68" spans="1:13" s="44" customFormat="1">
       <c r="A68" s="65"/>
-      <c r="B68" s="74"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="66"/>
       <c r="D68" s="66"/>
       <c r="E68" s="72"/>
-      <c r="F68" s="67"/>
+      <c r="F68" s="72"/>
       <c r="G68" s="72"/>
       <c r="H68" s="66"/>
       <c r="I68" s="68"/>
@@ -7753,32 +7727,32 @@
       <c r="L69" s="67"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
-      <c r="A70" s="65"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="70"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="70"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1">
       <c r="A72" s="38"/>
@@ -7791,7 +7765,7 @@
       <c r="H72" s="66"/>
       <c r="I72" s="68"/>
       <c r="J72" s="69"/>
-      <c r="K72" s="77"/>
+      <c r="K72" s="78"/>
       <c r="L72" s="77"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1">
@@ -7800,7 +7774,7 @@
       <c r="C73" s="69"/>
       <c r="D73" s="66"/>
       <c r="E73" s="77"/>
-      <c r="F73" s="67"/>
+      <c r="F73" s="77"/>
       <c r="G73" s="77"/>
       <c r="H73" s="66"/>
       <c r="I73" s="68"/>
@@ -7837,35 +7811,36 @@
       <c r="L75" s="77"/>
     </row>
     <row r="76" spans="1:13" s="44" customFormat="1">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="77"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="70"/>
+      <c r="M76" s="37"/>
     </row>
     <row r="77" spans="1:13" s="44" customFormat="1">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="70"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="77"/>
       <c r="M77" s="37"/>
     </row>
-    <row r="78" spans="1:13" s="44" customFormat="1">
+    <row r="78" spans="1:13">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="69"/>
@@ -7878,38 +7853,38 @@
       <c r="J78" s="69"/>
       <c r="K78" s="78"/>
       <c r="L78" s="77"/>
-      <c r="M78" s="37"/>
+      <c r="M78" s="44"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="77"/>
-      <c r="M79" s="44"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="70"/>
-    </row>
-    <row r="81" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="70"/>
+    </row>
+    <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="37"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="69"/>
@@ -7922,35 +7897,34 @@
       <c r="J81" s="69"/>
       <c r="K81" s="78"/>
       <c r="L81" s="77"/>
-      <c r="M81" s="37"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="77"/>
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="70"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="70"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="65"/>
@@ -7959,43 +7933,44 @@
       <c r="D84" s="66"/>
       <c r="E84" s="67"/>
       <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
+      <c r="G84" s="72"/>
       <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="79"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="67"/>
       <c r="L84" s="67"/>
+      <c r="M84" s="44"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="65"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="69"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="44"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="70"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="70"/>
-    </row>
-    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="70"/>
+    </row>
+    <row r="86" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="37"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -8008,7 +7983,7 @@
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
-      <c r="M87" s="37"/>
+      <c r="M87" s="44"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="38"/>
@@ -8023,9 +7998,8 @@
       <c r="J88" s="38"/>
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
-      <c r="M88" s="44"/>
-    </row>
-    <row r="89" spans="1:13">
+    </row>
+    <row r="89" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
@@ -8038,8 +8012,9 @@
       <c r="J89" s="38"/>
       <c r="K89" s="38"/>
       <c r="L89" s="38"/>
-    </row>
-    <row r="90" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M89" s="37"/>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -8052,7 +8027,7 @@
       <c r="J90" s="38"/>
       <c r="K90" s="38"/>
       <c r="L90" s="38"/>
-      <c r="M90" s="37"/>
+      <c r="M90" s="44"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="38"/>
@@ -8069,7 +8044,7 @@
       <c r="L91" s="38"/>
       <c r="M91" s="44"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -8082,7 +8057,7 @@
       <c r="J92" s="38"/>
       <c r="K92" s="38"/>
       <c r="L92" s="38"/>
-      <c r="M92" s="44"/>
+      <c r="M92" s="37"/>
     </row>
     <row r="93" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A93" s="38"/>
@@ -8099,7 +8074,7 @@
       <c r="L93" s="38"/>
       <c r="M93" s="37"/>
     </row>
-    <row r="94" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="94" spans="1:13">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
@@ -8112,7 +8087,6 @@
       <c r="J94" s="38"/>
       <c r="K94" s="38"/>
       <c r="L94" s="38"/>
-      <c r="M94" s="37"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="38"/>
@@ -8129,26 +8103,26 @@
       <c r="L95" s="38"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="67"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="65"/>
-      <c r="B97" s="74"/>
+      <c r="B97" s="66"/>
       <c r="C97" s="66"/>
       <c r="D97" s="66"/>
       <c r="E97" s="72"/>
-      <c r="F97" s="67"/>
+      <c r="F97" s="72"/>
       <c r="G97" s="72"/>
       <c r="H97" s="66"/>
       <c r="I97" s="68"/>
@@ -8156,29 +8130,15 @@
       <c r="K97" s="67"/>
       <c r="L97" s="67"/>
     </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="65"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="68"/>
-      <c r="J98" s="69"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-    </row>
+    <row r="101" spans="1:12" ht="37.5" customHeight="1"/>
     <row r="102" spans="1:12" ht="37.5" customHeight="1"/>
     <row r="103" spans="1:12" ht="37.5" customHeight="1"/>
     <row r="104" spans="1:12" ht="37.5" customHeight="1"/>
-    <row r="105" spans="1:12" ht="37.5" customHeight="1"/>
-    <row r="107" spans="1:12" ht="18" customHeight="1"/>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="112" spans="1:12" ht="30" customHeight="1"/>
-    <row r="116" ht="44.25" customHeight="1"/>
-    <row r="117" ht="45" customHeight="1"/>
+    <row r="106" spans="1:12" ht="18" customHeight="1"/>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="111" spans="1:12" ht="30" customHeight="1"/>
+    <row r="115" ht="44.25" customHeight="1"/>
+    <row r="116" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8196,19 +8156,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I83 I52 I80 I77 I71 I86">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I82 I51 I79 I76 I70 I85">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J83 J52 J80 J77 J71 J86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J82 J51 J79 J76 J70 J85">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H97:H98 H32:H83 H85:H86 H8:H10 H13:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H96:H97 H31:H82 H84:H85 H8:H10 H13:H29">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I97:I98 I32:I51 I53:I70 I81:I82 I78:I79 I72:I76 I85 I8:I10 I13:I30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I96:I97 I31:I50 I52:I69 I80:I81 I77:I78 I71:I75 I84 I8:I10 I13:I29">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J72:J76 J78:J79 J85 J81:J82 J53:J70 J32:J51 J97:J98 J8:J10 J13:J30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J75 J77:J78 J84 J80:J81 J52:J69 J31:J50 J96:J97 J8:J10 J13:J29">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8230,7 +8190,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Register_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Register_v1.0_EN.xlsx
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="175">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1107,19 +1107,13 @@
 </t>
   </si>
   <si>
-    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
-  </si>
-  <si>
-    <t>Word that user input is displayed and user cannot input more than 32 characters</t>
-  </si>
-  <si>
-    <t>Word that user input is displayed and user cannot input more than 32 characters, characters must be hide</t>
-  </si>
-  <si>
-    <t>Word that user input is displayed and user cannot input more than 50 characters</t>
-  </si>
-  <si>
     <t>Word that user input is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word that user input is displayed </t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and characters must be hide</t>
   </si>
 </sst>
 </file>
@@ -3119,6 +3113,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3136,27 +3151,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3555,20 +3549,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3588,8 +3582,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2247900" y="133350"/>
-          <a:ext cx="5695950" cy="4467225"/>
+          <a:off x="1828800" y="742950"/>
+          <a:ext cx="4105275" cy="4040455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6314,14 +6308,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6336,12 +6330,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6353,12 +6347,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6367,15 +6361,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6384,11 +6378,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6411,10 +6405,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6432,10 +6426,10 @@
       <c r="B10" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6449,8 +6443,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6458,8 +6452,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6467,8 +6461,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6476,8 +6470,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6485,8 +6479,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6494,8 +6488,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6503,12 +6497,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6516,6 +6504,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6531,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6901,7 +6895,7 @@
         <v>158</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
@@ -6929,7 +6923,7 @@
         <v>159</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6957,7 +6951,7 @@
         <v>160</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="27">
@@ -8183,7 +8177,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Register_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Register_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -998,9 +998,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1114,6 +1111,9 @@
   </si>
   <si>
     <t>Word that user input is displayed and characters must be hide</t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3113,6 +3113,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3133,24 +3151,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6288,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6308,14 +6308,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6330,12 +6330,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6347,12 +6347,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6361,28 +6361,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6405,10 +6405,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6424,12 +6424,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6438,13 +6438,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6452,8 +6452,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6461,8 +6461,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6470,8 +6470,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6479,8 +6479,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6488,8 +6488,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6497,6 +6497,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6504,12 +6510,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6525,7 +6525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6719,7 +6719,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="98.25" customHeight="1">
@@ -6747,7 +6747,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
@@ -6777,7 +6777,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6796,7 +6796,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6808,10 +6808,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="46.5" customHeight="1">
@@ -6824,7 +6824,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6836,10 +6836,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
@@ -6852,7 +6852,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6864,10 +6864,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="34.5" customHeight="1">
@@ -6880,7 +6880,7 @@
       <c r="E16" s="64"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6892,23 +6892,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="64"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6920,23 +6920,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="60"/>
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6948,23 +6948,23 @@
         <v>37</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="64"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6976,23 +6976,23 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L19" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="60"/>
       <c r="E20" s="64"/>
       <c r="F20" s="63"/>
       <c r="G20" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -7004,10 +7004,10 @@
         <v>37</v>
       </c>
       <c r="K20" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
@@ -7019,7 +7019,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="61"/>
       <c r="F21" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -7038,7 +7038,7 @@
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7050,10 +7050,10 @@
         <v>37</v>
       </c>
       <c r="K22" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L22" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="33" customHeight="1">
@@ -7070,10 +7070,10 @@
       <c r="I23" s="57"/>
       <c r="J23" s="58"/>
       <c r="K23" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="56" t="s">
         <v>166</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1">
@@ -8184,7 +8184,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
